--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl3-Ccr5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl3-Ccr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Ccr5</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>119.8399886666667</v>
+        <v>1.519357</v>
       </c>
       <c r="H2">
-        <v>359.519966</v>
+        <v>4.558071</v>
       </c>
       <c r="I2">
-        <v>0.03880186323141418</v>
+        <v>0.0004273171801484077</v>
       </c>
       <c r="J2">
-        <v>0.03880186323141418</v>
+        <v>0.0004273171801484077</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.03930266666666667</v>
+        <v>0.9442423333333334</v>
       </c>
       <c r="N2">
-        <v>0.117908</v>
+        <v>2.832727</v>
       </c>
       <c r="O2">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481535</v>
       </c>
       <c r="P2">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481536</v>
       </c>
       <c r="Q2">
-        <v>4.710031127903111</v>
+        <v>1.434641198846333</v>
       </c>
       <c r="R2">
-        <v>42.390280151128</v>
+        <v>12.911770789617</v>
       </c>
       <c r="S2">
-        <v>1.124982279236991E-05</v>
+        <v>2.926481974670742E-06</v>
       </c>
       <c r="T2">
-        <v>1.124982279236991E-05</v>
+        <v>2.926481974670742E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>119.8399886666667</v>
+        <v>1.519357</v>
       </c>
       <c r="H3">
-        <v>359.519966</v>
+        <v>4.558071</v>
       </c>
       <c r="I3">
-        <v>0.03880186323141418</v>
+        <v>0.0004273171801484077</v>
       </c>
       <c r="J3">
-        <v>0.03880186323141418</v>
+        <v>0.0004273171801484077</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>60.87605266666667</v>
+        <v>82.477727</v>
       </c>
       <c r="N3">
-        <v>182.628158</v>
+        <v>247.433181</v>
       </c>
       <c r="O3">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="P3">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="Q3">
-        <v>7295.385461644738</v>
+        <v>125.313111861539</v>
       </c>
       <c r="R3">
-        <v>65658.46915480263</v>
+        <v>1127.818006753851</v>
       </c>
       <c r="S3">
-        <v>0.01742489410724406</v>
+        <v>0.0002556224952605539</v>
       </c>
       <c r="T3">
-        <v>0.01742489410724406</v>
+        <v>0.0002556224952605539</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>119.8399886666667</v>
+        <v>1.519357</v>
       </c>
       <c r="H4">
-        <v>359.519966</v>
+        <v>4.558071</v>
       </c>
       <c r="I4">
-        <v>0.03880186323141418</v>
+        <v>0.0004273171801484077</v>
       </c>
       <c r="J4">
-        <v>0.03880186323141418</v>
+        <v>0.0004273171801484077</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.93095566666667</v>
+        <v>9.766934000000001</v>
       </c>
       <c r="N4">
-        <v>32.792867</v>
+        <v>29.300802</v>
       </c>
       <c r="O4">
-        <v>0.08063604449250054</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="P4">
-        <v>0.08063604449250053</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="Q4">
-        <v>1309.965603209169</v>
+        <v>14.839459541438</v>
       </c>
       <c r="R4">
-        <v>11789.69042888252</v>
+        <v>133.555135872942</v>
       </c>
       <c r="S4">
-        <v>0.003128828769920235</v>
+        <v>3.027057280719124E-05</v>
       </c>
       <c r="T4">
-        <v>0.003128828769920234</v>
+        <v>3.027057280719124E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>119.8399886666667</v>
+        <v>1.519357</v>
       </c>
       <c r="H5">
-        <v>359.519966</v>
+        <v>4.558071</v>
       </c>
       <c r="I5">
-        <v>0.03880186323141418</v>
+        <v>0.0004273171801484077</v>
       </c>
       <c r="J5">
-        <v>0.03880186323141418</v>
+        <v>0.0004273171801484077</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>63.712864</v>
+        <v>44.68687199999999</v>
       </c>
       <c r="N5">
-        <v>191.138592</v>
+        <v>134.060616</v>
       </c>
       <c r="O5">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788354</v>
       </c>
       <c r="P5">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788355</v>
       </c>
       <c r="Q5">
-        <v>7635.348899680876</v>
+        <v>67.89531178130399</v>
       </c>
       <c r="R5">
-        <v>68718.14009712788</v>
+        <v>611.0578060317359</v>
       </c>
       <c r="S5">
-        <v>0.01823689053145751</v>
+        <v>0.0001384976301059918</v>
       </c>
       <c r="T5">
-        <v>0.01823689053145751</v>
+        <v>0.0001384976301059918</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.135447</v>
+        <v>151.6315156666667</v>
       </c>
       <c r="H6">
-        <v>0.406341</v>
+        <v>454.894547</v>
       </c>
       <c r="I6">
-        <v>4.385511069868112E-05</v>
+        <v>0.0426461665667181</v>
       </c>
       <c r="J6">
-        <v>4.385511069868111E-05</v>
+        <v>0.04264616656671809</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.03930266666666667</v>
+        <v>0.9442423333333334</v>
       </c>
       <c r="N6">
-        <v>0.117908</v>
+        <v>2.832727</v>
       </c>
       <c r="O6">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481535</v>
       </c>
       <c r="P6">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481536</v>
       </c>
       <c r="Q6">
-        <v>0.005323428292</v>
+        <v>143.1768961599632</v>
       </c>
       <c r="R6">
-        <v>0.047910854628</v>
+        <v>1288.592065439669</v>
       </c>
       <c r="S6">
-        <v>1.271491064636555E-08</v>
+        <v>0.0002920622983212663</v>
       </c>
       <c r="T6">
-        <v>1.271491064636555E-08</v>
+        <v>0.0002920622983212663</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.135447</v>
+        <v>151.6315156666667</v>
       </c>
       <c r="H7">
-        <v>0.406341</v>
+        <v>454.894547</v>
       </c>
       <c r="I7">
-        <v>4.385511069868112E-05</v>
+        <v>0.0426461665667181</v>
       </c>
       <c r="J7">
-        <v>4.385511069868111E-05</v>
+        <v>0.04264616656671809</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>60.87605266666667</v>
+        <v>82.477727</v>
       </c>
       <c r="N7">
-        <v>182.628158</v>
+        <v>247.433181</v>
       </c>
       <c r="O7">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="P7">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="Q7">
-        <v>8.245478705542002</v>
+        <v>12506.22275375156</v>
       </c>
       <c r="R7">
-        <v>74.209308349878</v>
+        <v>112556.004783764</v>
       </c>
       <c r="S7">
-        <v>1.969417436035155E-05</v>
+        <v>0.02551107237788953</v>
       </c>
       <c r="T7">
-        <v>1.969417436035154E-05</v>
+        <v>0.02551107237788952</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.135447</v>
+        <v>151.6315156666667</v>
       </c>
       <c r="H8">
-        <v>0.406341</v>
+        <v>454.894547</v>
       </c>
       <c r="I8">
-        <v>4.385511069868112E-05</v>
+        <v>0.0426461665667181</v>
       </c>
       <c r="J8">
-        <v>4.385511069868111E-05</v>
+        <v>0.04264616656671809</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.93095566666667</v>
+        <v>9.766934000000001</v>
       </c>
       <c r="N8">
-        <v>32.792867</v>
+        <v>29.300802</v>
       </c>
       <c r="O8">
-        <v>0.08063604449250054</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="P8">
-        <v>0.08063604449250053</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="Q8">
-        <v>1.480565152183</v>
+        <v>1480.975005836299</v>
       </c>
       <c r="R8">
-        <v>13.325086369647</v>
+        <v>13328.77505252669</v>
       </c>
       <c r="S8">
-        <v>3.536302657522387E-06</v>
+        <v>0.003020996931499702</v>
       </c>
       <c r="T8">
-        <v>3.536302657522386E-06</v>
+        <v>0.003020996931499701</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.135447</v>
+        <v>151.6315156666667</v>
       </c>
       <c r="H9">
-        <v>0.406341</v>
+        <v>454.894547</v>
       </c>
       <c r="I9">
-        <v>4.385511069868112E-05</v>
+        <v>0.0426461665667181</v>
       </c>
       <c r="J9">
-        <v>4.385511069868111E-05</v>
+        <v>0.04264616656671809</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>63.712864</v>
+        <v>44.68687199999999</v>
       </c>
       <c r="N9">
-        <v>191.138592</v>
+        <v>134.060616</v>
       </c>
       <c r="O9">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788354</v>
       </c>
       <c r="P9">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788355</v>
       </c>
       <c r="Q9">
-        <v>8.629716290208002</v>
+        <v>6775.938131762327</v>
       </c>
       <c r="R9">
-        <v>77.66744661187201</v>
+        <v>60983.44318586094</v>
       </c>
       <c r="S9">
-        <v>2.061191877016082E-05</v>
+        <v>0.0138220349590076</v>
       </c>
       <c r="T9">
-        <v>2.061191877016081E-05</v>
+        <v>0.0138220349590076</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>2801.031738</v>
+        <v>0.08050133333333333</v>
       </c>
       <c r="H10">
-        <v>8403.095214000001</v>
+        <v>0.241504</v>
       </c>
       <c r="I10">
-        <v>0.906919732002253</v>
+        <v>2.264089529859475E-05</v>
       </c>
       <c r="J10">
-        <v>0.906919732002253</v>
+        <v>2.264089529859474E-05</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.03930266666666667</v>
+        <v>0.9442423333333334</v>
       </c>
       <c r="N10">
-        <v>0.117908</v>
+        <v>2.832727</v>
       </c>
       <c r="O10">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481535</v>
       </c>
       <c r="P10">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481536</v>
       </c>
       <c r="Q10">
-        <v>110.088016721368</v>
+        <v>0.07601276682311112</v>
       </c>
       <c r="R10">
-        <v>990.7921504923121</v>
+        <v>0.684114901408</v>
       </c>
       <c r="S10">
-        <v>0.0002629432048425141</v>
+        <v>1.550561855686063E-07</v>
       </c>
       <c r="T10">
-        <v>0.0002629432048425141</v>
+        <v>1.550561855686063E-07</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,31 +1083,31 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>2801.031738</v>
+        <v>0.08050133333333333</v>
       </c>
       <c r="H11">
-        <v>8403.095214000001</v>
+        <v>0.241504</v>
       </c>
       <c r="I11">
-        <v>0.906919732002253</v>
+        <v>2.264089529859475E-05</v>
       </c>
       <c r="J11">
-        <v>0.906919732002253</v>
+        <v>2.264089529859474E-05</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>60.87605266666667</v>
+        <v>82.477727</v>
       </c>
       <c r="N11">
-        <v>182.628158</v>
+        <v>247.433181</v>
       </c>
       <c r="O11">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="P11">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="Q11">
-        <v>170515.7556034929</v>
+        <v>6.639566993802666</v>
       </c>
       <c r="R11">
-        <v>1534641.800431436</v>
+        <v>59.756102944224</v>
       </c>
       <c r="S11">
-        <v>0.4072737486769772</v>
+        <v>1.354385552471754E-05</v>
       </c>
       <c r="T11">
-        <v>0.4072737486769771</v>
+        <v>1.354385552471754E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>2801.031738</v>
+        <v>0.08050133333333333</v>
       </c>
       <c r="H12">
-        <v>8403.095214000001</v>
+        <v>0.241504</v>
       </c>
       <c r="I12">
-        <v>0.906919732002253</v>
+        <v>2.264089529859475E-05</v>
       </c>
       <c r="J12">
-        <v>0.906919732002253</v>
+        <v>2.264089529859474E-05</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.93095566666667</v>
+        <v>9.766934000000001</v>
       </c>
       <c r="N12">
-        <v>32.792867</v>
+        <v>29.300802</v>
       </c>
       <c r="O12">
-        <v>0.08063604449250054</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="P12">
-        <v>0.08063604449250053</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="Q12">
-        <v>30617.95374900429</v>
+        <v>0.7862512095786667</v>
       </c>
       <c r="R12">
-        <v>275561.5837410386</v>
+        <v>7.076260886208</v>
       </c>
       <c r="S12">
-        <v>0.07313041986086034</v>
+        <v>1.603850491847958E-06</v>
       </c>
       <c r="T12">
-        <v>0.07313041986086033</v>
+        <v>1.603850491847958E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>2801.031738</v>
+        <v>0.08050133333333333</v>
       </c>
       <c r="H13">
-        <v>8403.095214000001</v>
+        <v>0.241504</v>
       </c>
       <c r="I13">
-        <v>0.906919732002253</v>
+        <v>2.264089529859475E-05</v>
       </c>
       <c r="J13">
-        <v>0.906919732002253</v>
+        <v>2.264089529859474E-05</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>63.712864</v>
+        <v>44.68687199999999</v>
       </c>
       <c r="N13">
-        <v>191.138592</v>
+        <v>134.060616</v>
       </c>
       <c r="O13">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788354</v>
       </c>
       <c r="P13">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788355</v>
       </c>
       <c r="Q13">
-        <v>178461.7541828777</v>
+        <v>3.597352778495999</v>
       </c>
       <c r="R13">
-        <v>1606155.787645899</v>
+        <v>32.376175006464</v>
       </c>
       <c r="S13">
-        <v>0.4262526202595729</v>
+        <v>7.338133096460641E-06</v>
       </c>
       <c r="T13">
-        <v>0.4262526202595729</v>
+        <v>7.338133096460641E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1269,13 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>167.5040133333333</v>
+        <v>3259.30721</v>
       </c>
       <c r="H14">
-        <v>502.5120400000001</v>
+        <v>9777.921630000001</v>
       </c>
       <c r="I14">
-        <v>0.05423454965563424</v>
+        <v>0.9166759137020294</v>
       </c>
       <c r="J14">
-        <v>0.05423454965563424</v>
+        <v>0.9166759137020293</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.03930266666666667</v>
+        <v>0.9442423333333334</v>
       </c>
       <c r="N14">
-        <v>0.117908</v>
+        <v>2.832727</v>
       </c>
       <c r="O14">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481535</v>
       </c>
       <c r="P14">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481536</v>
       </c>
       <c r="Q14">
-        <v>6.583354401368889</v>
+        <v>3077.575845020557</v>
       </c>
       <c r="R14">
-        <v>59.25018961232001</v>
+        <v>27698.18260518501</v>
       </c>
       <c r="S14">
-        <v>1.572422100482814E-05</v>
+        <v>0.006277855566518854</v>
       </c>
       <c r="T14">
-        <v>1.572422100482814E-05</v>
+        <v>0.006277855566518854</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1331,13 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>167.5040133333333</v>
+        <v>3259.30721</v>
       </c>
       <c r="H15">
-        <v>502.5120400000001</v>
+        <v>9777.921630000001</v>
       </c>
       <c r="I15">
-        <v>0.05423454965563424</v>
+        <v>0.9166759137020294</v>
       </c>
       <c r="J15">
-        <v>0.05423454965563424</v>
+        <v>0.9166759137020293</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>60.87605266666667</v>
+        <v>82.477727</v>
       </c>
       <c r="N15">
-        <v>182.628158</v>
+        <v>247.433181</v>
       </c>
       <c r="O15">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="P15">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="Q15">
-        <v>10196.98313755804</v>
+        <v>268820.2502755117</v>
       </c>
       <c r="R15">
-        <v>91772.84823802234</v>
+        <v>2419382.252479605</v>
       </c>
       <c r="S15">
-        <v>0.02435530683326554</v>
+        <v>0.5483584449480368</v>
       </c>
       <c r="T15">
-        <v>0.02435530683326553</v>
+        <v>0.5483584449480366</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>167.5040133333333</v>
+        <v>3259.30721</v>
       </c>
       <c r="H16">
-        <v>502.5120400000001</v>
+        <v>9777.921630000001</v>
       </c>
       <c r="I16">
-        <v>0.05423454965563424</v>
+        <v>0.9166759137020294</v>
       </c>
       <c r="J16">
-        <v>0.05423454965563424</v>
+        <v>0.9166759137020293</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.93095566666667</v>
+        <v>9.766934000000001</v>
       </c>
       <c r="N16">
-        <v>32.792867</v>
+        <v>29.300802</v>
       </c>
       <c r="O16">
-        <v>0.08063604449250054</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="P16">
-        <v>0.08063604449250053</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="Q16">
-        <v>1830.978943735409</v>
+        <v>31833.43840579415</v>
       </c>
       <c r="R16">
-        <v>16478.81049361868</v>
+        <v>286500.9456521473</v>
       </c>
       <c r="S16">
-        <v>0.004373259559062453</v>
+        <v>0.06493608559496443</v>
       </c>
       <c r="T16">
-        <v>0.004373259559062452</v>
+        <v>0.06493608559496442</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,309 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3259.30721</v>
+      </c>
+      <c r="H17">
+        <v>9777.921630000001</v>
+      </c>
+      <c r="I17">
+        <v>0.9166759137020294</v>
+      </c>
+      <c r="J17">
+        <v>0.9166759137020293</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>44.68687199999999</v>
+      </c>
+      <c r="N17">
+        <v>134.060616</v>
+      </c>
+      <c r="O17">
+        <v>0.3241096696788354</v>
+      </c>
+      <c r="P17">
+        <v>0.3241096696788355</v>
+      </c>
+      <c r="Q17">
+        <v>145648.2441019471</v>
+      </c>
+      <c r="R17">
+        <v>1310834.196917524</v>
+      </c>
+      <c r="S17">
+        <v>0.2971035275925094</v>
+      </c>
+      <c r="T17">
+        <v>0.2971035275925094</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>143.033414</v>
+      </c>
+      <c r="H18">
+        <v>429.100242</v>
+      </c>
+      <c r="I18">
+        <v>0.04022796165580557</v>
+      </c>
+      <c r="J18">
+        <v>0.04022796165580557</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.9442423333333334</v>
+      </c>
+      <c r="N18">
+        <v>2.832727</v>
+      </c>
+      <c r="O18">
+        <v>0.006848500623481535</v>
+      </c>
+      <c r="P18">
+        <v>0.006848500623481536</v>
+      </c>
+      <c r="Q18">
+        <v>135.0582045799927</v>
+      </c>
+      <c r="R18">
+        <v>1215.523841219934</v>
+      </c>
+      <c r="S18">
+        <v>0.0002755012204811757</v>
+      </c>
+      <c r="T18">
+        <v>0.0002755012204811758</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>143.033414</v>
+      </c>
+      <c r="H19">
+        <v>429.100242</v>
+      </c>
+      <c r="I19">
+        <v>0.04022796165580557</v>
+      </c>
+      <c r="J19">
+        <v>0.04022796165580557</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>82.477727</v>
+      </c>
+      <c r="N19">
+        <v>247.433181</v>
+      </c>
+      <c r="O19">
+        <v>0.5982031781913751</v>
+      </c>
+      <c r="P19">
+        <v>0.5982031781913751</v>
+      </c>
+      <c r="Q19">
+        <v>11797.07087176998</v>
+      </c>
+      <c r="R19">
+        <v>106173.6378459298</v>
+      </c>
+      <c r="S19">
+        <v>0.02406449451466366</v>
+      </c>
+      <c r="T19">
+        <v>0.02406449451466366</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>167.5040133333333</v>
-      </c>
-      <c r="H17">
-        <v>502.5120400000001</v>
-      </c>
-      <c r="I17">
-        <v>0.05423454965563424</v>
-      </c>
-      <c r="J17">
-        <v>0.05423454965563424</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>63.712864</v>
-      </c>
-      <c r="N17">
-        <v>191.138592</v>
-      </c>
-      <c r="O17">
-        <v>0.470000381752102</v>
-      </c>
-      <c r="P17">
-        <v>0.470000381752102</v>
-      </c>
-      <c r="Q17">
-        <v>10672.16042096085</v>
-      </c>
-      <c r="R17">
-        <v>96049.4437886477</v>
-      </c>
-      <c r="S17">
-        <v>0.02549025904230142</v>
-      </c>
-      <c r="T17">
-        <v>0.02549025904230142</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>143.033414</v>
+      </c>
+      <c r="H20">
+        <v>429.100242</v>
+      </c>
+      <c r="I20">
+        <v>0.04022796165580557</v>
+      </c>
+      <c r="J20">
+        <v>0.04022796165580557</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>9.766934000000001</v>
+      </c>
+      <c r="N20">
+        <v>29.300802</v>
+      </c>
+      <c r="O20">
+        <v>0.07083865150630789</v>
+      </c>
+      <c r="P20">
+        <v>0.07083865150630789</v>
+      </c>
+      <c r="Q20">
+        <v>1396.997914332676</v>
+      </c>
+      <c r="R20">
+        <v>12572.98122899409</v>
+      </c>
+      <c r="S20">
+        <v>0.002849694556544727</v>
+      </c>
+      <c r="T20">
+        <v>0.002849694556544727</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>143.033414</v>
+      </c>
+      <c r="H21">
+        <v>429.100242</v>
+      </c>
+      <c r="I21">
+        <v>0.04022796165580557</v>
+      </c>
+      <c r="J21">
+        <v>0.04022796165580557</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>44.68687199999999</v>
+      </c>
+      <c r="N21">
+        <v>134.060616</v>
+      </c>
+      <c r="O21">
+        <v>0.3241096696788354</v>
+      </c>
+      <c r="P21">
+        <v>0.3241096696788355</v>
+      </c>
+      <c r="Q21">
+        <v>6391.715863141008</v>
+      </c>
+      <c r="R21">
+        <v>57525.44276826907</v>
+      </c>
+      <c r="S21">
+        <v>0.013038271364116</v>
+      </c>
+      <c r="T21">
+        <v>0.013038271364116</v>
       </c>
     </row>
   </sheetData>
